--- a/AEMostofa/Meherpur WD Division/P1/Amtoil Khal/XL_FILE_CROSS_SECTION/Amtoli_Khal_Dataprep_Input.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Amtoil Khal/XL_FILE_CROSS_SECTION/Amtoli_Khal_Dataprep_Input.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" updateLinks="never"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23B7E7-BA71-4847-8B49-C063164DBB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Cross_Section_Data" sheetId="2" r:id="rId1"/>
@@ -24,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Raw_Cross_Section_Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -337,9 +336,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Re-excavation of Amtiol Khal from km 0.000 to km 3.300  = 3.300  km at  Gangni Upazilla of Meherpur District under Meherpur WD Division , BWDB, Meherpur.</t>
-  </si>
-  <si>
     <t>Exesting</t>
   </si>
   <si>
@@ -471,11 +467,14 @@
   <si>
     <t>Meherpur WD Division</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -787,10 +786,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
@@ -802,34 +798,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="6"/>
+    <cellStyle name="Comma 3" xfId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11" xfId="22" xr:uid="{65930892-DEDE-4129-A9F9-82CF752263E9}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 2 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 2 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Normal 2 5" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Normal 2 5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Normal 2 6" xfId="5" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Normal 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Normal 4 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Normal 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Normal 7 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 11" xfId="22"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="7"/>
+    <cellStyle name="Normal 2 2 2" xfId="10"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="11"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="17"/>
+    <cellStyle name="Normal 2 2 3" xfId="18"/>
+    <cellStyle name="Normal 2 3" xfId="9"/>
+    <cellStyle name="Normal 2 4" xfId="13"/>
+    <cellStyle name="Normal 2 4 2" xfId="14"/>
+    <cellStyle name="Normal 2 5" xfId="19"/>
+    <cellStyle name="Normal 2 5 2" xfId="15"/>
+    <cellStyle name="Normal 2 6" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="8"/>
+    <cellStyle name="Normal 3 2" xfId="12"/>
+    <cellStyle name="Normal 4" xfId="20"/>
+    <cellStyle name="Normal 4 2" xfId="21"/>
+    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 7" xfId="3"/>
+    <cellStyle name="Normal 7 2" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,7 +844,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -907,7 +906,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B17B-4E4F-AAA1-02ABA3AA04B1}"/>
             </c:ext>
@@ -946,7 +945,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B17B-4E4F-AAA1-02ABA3AA04B1}"/>
             </c:ext>
@@ -960,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249591296"/>
-        <c:axId val="249592832"/>
+        <c:axId val="239615360"/>
+        <c:axId val="240338048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249591296"/>
+        <c:axId val="239615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1010,12 +1009,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249592832"/>
+        <c:crossAx val="240338048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249592832"/>
+        <c:axId val="240338048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249591296"/>
+        <c:crossAx val="239615360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1115,7 +1114,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1294,7 +1293,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5160-43E7-A7BE-BA91023C797D}"/>
             </c:ext>
@@ -1420,7 +1419,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5160-43E7-A7BE-BA91023C797D}"/>
             </c:ext>
@@ -1434,11 +1433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="210038784"/>
-        <c:axId val="210041088"/>
+        <c:axId val="240548096"/>
+        <c:axId val="240562944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210038784"/>
+        <c:axId val="240548096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,14 +1521,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210041088"/>
+        <c:crossAx val="240562944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210041088"/>
+        <c:axId val="240562944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -1614,7 +1613,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210038784"/>
+        <c:crossAx val="240548096"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -1673,7 +1672,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1840,7 +1839,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4CC2-4230-BFA0-CD21A3E91FD6}"/>
             </c:ext>
@@ -1936,7 +1935,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4CC2-4230-BFA0-CD21A3E91FD6}"/>
             </c:ext>
@@ -1950,11 +1949,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211320192"/>
-        <c:axId val="211335040"/>
+        <c:axId val="241059328"/>
+        <c:axId val="241065984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211320192"/>
+        <c:axId val="241059328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,14 +2037,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211335040"/>
+        <c:crossAx val="241065984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211335040"/>
+        <c:axId val="241065984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -2130,7 +2129,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211320192"/>
+        <c:crossAx val="241059328"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -2189,7 +2188,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2350,7 +2349,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB30-410C-8183-485BB59BFA60}"/>
             </c:ext>
@@ -2458,7 +2457,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EB30-410C-8183-485BB59BFA60}"/>
             </c:ext>
@@ -2472,11 +2471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211356672"/>
-        <c:axId val="211375616"/>
+        <c:axId val="241099904"/>
+        <c:axId val="241102208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211356672"/>
+        <c:axId val="241099904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,14 +2559,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211375616"/>
+        <c:crossAx val="241102208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211375616"/>
+        <c:axId val="241102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -2652,7 +2651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211356672"/>
+        <c:crossAx val="241099904"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -2711,7 +2710,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2872,7 +2871,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB59-441F-84FD-8A8439C5641B}"/>
             </c:ext>
@@ -2974,7 +2973,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB59-441F-84FD-8A8439C5641B}"/>
             </c:ext>
@@ -2988,11 +2987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211438208"/>
-        <c:axId val="211457152"/>
+        <c:axId val="240845568"/>
+        <c:axId val="240847872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211438208"/>
+        <c:axId val="240845568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3076,14 +3075,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211457152"/>
+        <c:crossAx val="240847872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211457152"/>
+        <c:axId val="240847872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -3168,7 +3167,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211438208"/>
+        <c:crossAx val="240845568"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -3227,7 +3226,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3400,7 +3399,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2134-4FB2-9BE5-9BA5168DF568}"/>
             </c:ext>
@@ -3496,7 +3495,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2134-4FB2-9BE5-9BA5168DF568}"/>
             </c:ext>
@@ -3510,11 +3509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213059840"/>
-        <c:axId val="213062400"/>
+        <c:axId val="240882048"/>
+        <c:axId val="240884352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213059840"/>
+        <c:axId val="240882048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3598,14 +3597,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213062400"/>
+        <c:crossAx val="240884352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213062400"/>
+        <c:axId val="240884352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -3690,7 +3689,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213059840"/>
+        <c:crossAx val="240882048"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -3749,7 +3748,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3880,7 +3879,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5D84-4A69-922F-4E13297F0363}"/>
             </c:ext>
@@ -3970,7 +3969,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5D84-4A69-922F-4E13297F0363}"/>
             </c:ext>
@@ -3984,11 +3983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213112704"/>
-        <c:axId val="213119360"/>
+        <c:axId val="241000448"/>
+        <c:axId val="241002752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213112704"/>
+        <c:axId val="241000448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4072,14 +4071,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213119360"/>
+        <c:crossAx val="241002752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213119360"/>
+        <c:axId val="241002752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -4164,7 +4163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213112704"/>
+        <c:crossAx val="241000448"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4223,7 +4222,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4390,7 +4389,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-02FC-47DE-9C65-FE24AF20D65B}"/>
             </c:ext>
@@ -4486,7 +4485,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-02FC-47DE-9C65-FE24AF20D65B}"/>
             </c:ext>
@@ -4500,11 +4499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213157376"/>
-        <c:axId val="213164032"/>
+        <c:axId val="240910336"/>
+        <c:axId val="240912256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213157376"/>
+        <c:axId val="240910336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,14 +4587,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213164032"/>
+        <c:crossAx val="240912256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213164032"/>
+        <c:axId val="240912256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -4680,7 +4679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213157376"/>
+        <c:crossAx val="240910336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -4739,7 +4738,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4906,7 +4905,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A23C-4B28-97C7-E602407E7407}"/>
             </c:ext>
@@ -5032,7 +5031,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A23C-4B28-97C7-E602407E7407}"/>
             </c:ext>
@@ -5046,11 +5045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212952192"/>
-        <c:axId val="212954496"/>
+        <c:axId val="240942080"/>
+        <c:axId val="240956928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212952192"/>
+        <c:axId val="240942080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,14 +5133,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212954496"/>
+        <c:crossAx val="240956928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212954496"/>
+        <c:axId val="240956928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -5226,7 +5225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212952192"/>
+        <c:crossAx val="240942080"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -5285,7 +5284,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5410,7 +5409,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE28-4CD7-BA6E-BAD15F89B521}"/>
             </c:ext>
@@ -5500,7 +5499,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FE28-4CD7-BA6E-BAD15F89B521}"/>
             </c:ext>
@@ -5514,11 +5513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="212865792"/>
-        <c:axId val="212868096"/>
+        <c:axId val="241515520"/>
+        <c:axId val="241526272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212865792"/>
+        <c:axId val="241515520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5602,14 +5601,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212868096"/>
+        <c:crossAx val="241526272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212868096"/>
+        <c:axId val="241526272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -5694,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212865792"/>
+        <c:crossAx val="241515520"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -5753,7 +5752,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5815,7 +5814,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-24BB-4758-83A6-901D8EAC774D}"/>
             </c:ext>
@@ -5854,7 +5853,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-24BB-4758-83A6-901D8EAC774D}"/>
             </c:ext>
@@ -5868,11 +5867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249618432"/>
-        <c:axId val="249619968"/>
+        <c:axId val="240383872"/>
+        <c:axId val="240385408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249618432"/>
+        <c:axId val="240383872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5918,12 +5917,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249619968"/>
+        <c:crossAx val="240385408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249619968"/>
+        <c:axId val="240385408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,7 +5967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249618432"/>
+        <c:crossAx val="240383872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6023,7 +6022,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6085,7 +6084,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B89-43C7-BB93-EE3BF44B9A59}"/>
             </c:ext>
@@ -6124,7 +6123,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B89-43C7-BB93-EE3BF44B9A59}"/>
             </c:ext>
@@ -6138,11 +6137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249665408"/>
-        <c:axId val="249666944"/>
+        <c:axId val="220832128"/>
+        <c:axId val="220833664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249665408"/>
+        <c:axId val="220832128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6188,12 +6187,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249666944"/>
+        <c:crossAx val="220833664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249666944"/>
+        <c:axId val="220833664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6238,7 +6237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249665408"/>
+        <c:crossAx val="220832128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6293,7 +6292,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6355,7 +6354,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C86A-485F-9856-34C7AD76DD03}"/>
             </c:ext>
@@ -6394,7 +6393,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C86A-485F-9856-34C7AD76DD03}"/>
             </c:ext>
@@ -6408,11 +6407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249831808"/>
-        <c:axId val="249833344"/>
+        <c:axId val="239704704"/>
+        <c:axId val="240263552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249831808"/>
+        <c:axId val="239704704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6458,12 +6457,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249833344"/>
+        <c:crossAx val="240263552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249833344"/>
+        <c:axId val="240263552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6508,7 +6507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249831808"/>
+        <c:crossAx val="239704704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6563,7 +6562,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6766,7 +6765,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-47C7-48C0-9511-DBAA05C98736}"/>
             </c:ext>
@@ -6844,7 +6843,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-47C7-48C0-9511-DBAA05C98736}"/>
             </c:ext>
@@ -6858,11 +6857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209842560"/>
-        <c:axId val="209844864"/>
+        <c:axId val="240303104"/>
+        <c:axId val="240305664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209842560"/>
+        <c:axId val="240303104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6946,14 +6945,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209844864"/>
+        <c:crossAx val="240305664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209844864"/>
+        <c:axId val="240305664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -7038,7 +7037,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209842560"/>
+        <c:crossAx val="240303104"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -7097,7 +7096,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7266,7 +7265,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-460B-4F2F-ACC7-BEB049894679}"/>
             </c:ext>
@@ -7344,7 +7343,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-460B-4F2F-ACC7-BEB049894679}"/>
             </c:ext>
@@ -7358,11 +7357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211213312"/>
-        <c:axId val="211215872"/>
+        <c:axId val="240319104"/>
+        <c:axId val="240747648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211213312"/>
+        <c:axId val="240319104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7446,14 +7445,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211215872"/>
+        <c:crossAx val="240747648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211215872"/>
+        <c:axId val="240747648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -7538,7 +7537,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211213312"/>
+        <c:crossAx val="240319104"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -7597,7 +7596,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7735,7 +7734,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7044-45FE-90D5-450673A8F5DD}"/>
             </c:ext>
@@ -7820,7 +7819,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7044-45FE-90D5-450673A8F5DD}"/>
             </c:ext>
@@ -7940,7 +7939,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7044-45FE-90D5-450673A8F5DD}"/>
             </c:ext>
@@ -8030,7 +8029,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7044-45FE-90D5-450673A8F5DD}"/>
             </c:ext>
@@ -8044,11 +8043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209889920"/>
-        <c:axId val="209900672"/>
+        <c:axId val="240657152"/>
+        <c:axId val="240659456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209889920"/>
+        <c:axId val="240657152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8132,14 +8131,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209900672"/>
+        <c:crossAx val="240659456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209900672"/>
+        <c:axId val="240659456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -8224,7 +8223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209889920"/>
+        <c:crossAx val="240657152"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -8283,7 +8282,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8444,7 +8443,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C205-4432-8065-B816C6AE0C20}"/>
             </c:ext>
@@ -8534,7 +8533,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C205-4432-8065-B816C6AE0C20}"/>
             </c:ext>
@@ -8548,11 +8547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209951744"/>
-        <c:axId val="209954304"/>
+        <c:axId val="240456448"/>
+        <c:axId val="240458752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209951744"/>
+        <c:axId val="240456448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8636,14 +8635,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209954304"/>
+        <c:crossAx val="240458752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209954304"/>
+        <c:axId val="240458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -8728,7 +8727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209951744"/>
+        <c:crossAx val="240456448"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -8787,7 +8786,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8942,7 +8941,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-33DE-4931-914C-63A1DE9959B3}"/>
             </c:ext>
@@ -9032,7 +9031,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-33DE-4931-914C-63A1DE9959B3}"/>
             </c:ext>
@@ -9046,11 +9045,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="209965440"/>
-        <c:axId val="209967744"/>
+        <c:axId val="240495232"/>
+        <c:axId val="240501888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="209965440"/>
+        <c:axId val="240495232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9134,14 +9133,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209967744"/>
+        <c:crossAx val="240501888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
         <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209967744"/>
+        <c:axId val="240501888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6"/>
@@ -9226,7 +9225,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209965440"/>
+        <c:crossAx val="240495232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -9304,7 +9303,7 @@
         <xdr:cNvPr id="60" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78342806-FB51-4921-BC71-937279D26140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78342806-FB51-4921-BC71-937279D26140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9342,7 +9341,7 @@
         <xdr:cNvPr id="61" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9FAED2-5501-42DE-A700-2CC965CA778B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B9FAED2-5501-42DE-A700-2CC965CA778B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9380,7 +9379,7 @@
         <xdr:cNvPr id="62" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0795EAFD-D38A-4F17-BF7D-9C48655B3292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0795EAFD-D38A-4F17-BF7D-9C48655B3292}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9418,7 +9417,7 @@
         <xdr:cNvPr id="63" name="Chart 152">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEF1EC9-08AE-4BB8-AF8B-F841A8877271}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACEF1EC9-08AE-4BB8-AF8B-F841A8877271}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9456,7 +9455,7 @@
         <xdr:cNvPr id="2" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D38768-8331-4275-855B-ACDB1F1E3FE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13D38768-8331-4275-855B-ACDB1F1E3FE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9494,7 +9493,7 @@
         <xdr:cNvPr id="3" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65626FAD-1771-473E-8130-9DEC18A95BA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65626FAD-1771-473E-8130-9DEC18A95BA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9532,7 +9531,7 @@
         <xdr:cNvPr id="4" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23FCD4E6-8638-4A73-B536-51FA80663FDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{23FCD4E6-8638-4A73-B536-51FA80663FDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9570,7 +9569,7 @@
         <xdr:cNvPr id="5" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F3875E-3151-4489-8D25-682838ED8457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{90F3875E-3151-4489-8D25-682838ED8457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9608,7 +9607,7 @@
         <xdr:cNvPr id="6" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD971F8-C4B4-4938-B190-5880D97E6E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAD971F8-C4B4-4938-B190-5880D97E6E02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9646,7 +9645,7 @@
         <xdr:cNvPr id="7" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73ADEC87-C5F8-4C0B-BADE-B4342FA04D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73ADEC87-C5F8-4C0B-BADE-B4342FA04D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9684,7 +9683,7 @@
         <xdr:cNvPr id="8" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FD7483-4F96-4BB4-9758-0AB7D8120B66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41FD7483-4F96-4BB4-9758-0AB7D8120B66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9722,7 +9721,7 @@
         <xdr:cNvPr id="9" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A39C220-E68A-44DD-8403-CF3AA04CABCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A39C220-E68A-44DD-8403-CF3AA04CABCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9755,7 +9754,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25B6206-707B-4BAF-B8ED-1DE88E6E41B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D25B6206-707B-4BAF-B8ED-1DE88E6E41B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9956,7 +9955,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4EEE0B-7575-4D18-B499-D010D53067CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A4EEE0B-7575-4D18-B499-D010D53067CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10197,7 +10196,7 @@
         <xdr:cNvPr id="12" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5663F506-5F8A-42C3-98F2-B7926CD52D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5663F506-5F8A-42C3-98F2-B7926CD52D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10235,7 +10234,7 @@
         <xdr:cNvPr id="13" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0591771-CF87-4C3A-B99A-C3D0BA41F0C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0591771-CF87-4C3A-B99A-C3D0BA41F0C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10273,7 +10272,7 @@
         <xdr:cNvPr id="14" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDEE0E5-6926-4629-9660-8916FFDDE06C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABDEE0E5-6926-4629-9660-8916FFDDE06C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10311,7 +10310,7 @@
         <xdr:cNvPr id="15" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B42E16-CB40-4FB3-BC4D-FED74689CBEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{50B42E16-CB40-4FB3-BC4D-FED74689CBEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10349,7 +10348,7 @@
         <xdr:cNvPr id="16" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF571F57-5D3A-4013-AEAE-0A24655B13B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF571F57-5D3A-4013-AEAE-0A24655B13B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10387,7 +10386,7 @@
         <xdr:cNvPr id="17" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB002573-620A-4A05-9E24-607F5DA52A87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BB002573-620A-4A05-9E24-607F5DA52A87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10420,7 +10419,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5C1293-1335-4AAA-8F79-D37B0AF344BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E5C1293-1335-4AAA-8F79-D37B0AF344BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10618,7 +10617,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1D34D7-B488-4FCC-9EC4-344EA4C289F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE1D34D7-B488-4FCC-9EC4-344EA4C289F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10842,7 +10841,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA7A1EF-7B28-4346-98C2-273147CB1058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7BA7A1EF-7B28-4346-98C2-273147CB1058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11028,7 +11027,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11038,7 +11037,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="81802" y="158357"/>
+          <a:off x="80286" y="175781"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11098,7 +11097,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11108,7 +11107,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="81802" y="140570"/>
+          <a:off x="80286" y="148173"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11168,7 +11167,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11178,7 +11177,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="82286" y="135406"/>
+          <a:off x="80770" y="135263"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11238,7 +11237,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11248,7 +11247,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="82125" y="140570"/>
+          <a:off x="80609" y="148173"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11308,7 +11307,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11318,7 +11317,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="82125" y="140570"/>
+          <a:off x="80609" y="154509"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11378,7 +11377,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11388,7 +11387,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="82125" y="140570"/>
+          <a:off x="80609" y="154509"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11448,7 +11447,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B92B1EC-EFBE-4903-8886-6AE33DA2A3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B92B1EC-EFBE-4903-8886-6AE33DA2A3E6}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11458,7 +11457,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="81159" y="152239"/>
+          <a:off x="79644" y="148754"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11518,7 +11517,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E414D1BC-9DA7-4119-8D93-89281D7A4822}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E414D1BC-9DA7-4119-8D93-89281D7A4822}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11528,7 +11527,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="80981" y="183391"/>
+          <a:off x="79466" y="179273"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11588,7 +11587,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B4E647-D8DA-447E-AC0B-3A43469635B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A4B4E647-D8DA-447E-AC0B-3A43469635B5}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11653,7 +11652,7 @@
         <cdr:cNvPr id="2" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CBC91D-8C06-4DE0-965D-650E4DE24B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2CBC91D-8C06-4DE0-965D-650E4DE24B07}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11674,7 +11673,7 @@
           <cdr:cNvPr id="3" name="TextBox 14">
             <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BFC8796-0C33-433E-B22F-13A00497C312}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4BFC8796-0C33-433E-B22F-13A00497C312}"/>
               </a:ext>
             </a:extLst>
           </cdr:cNvPr>
@@ -11729,7 +11728,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CBC91D-8C06-4DE0-965D-650E4DE24B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2CBC91D-8C06-4DE0-965D-650E4DE24B07}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11799,7 +11798,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD26149-C9AE-4D40-B10F-750C07B7E900}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ECD26149-C9AE-4D40-B10F-750C07B7E900}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11869,7 +11868,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782A469D-7FEA-499A-B2CF-3AF76541F41E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{782A469D-7FEA-499A-B2CF-3AF76541F41E}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11879,7 +11878,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="81710" y="144662"/>
+          <a:off x="80195" y="141811"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -11939,7 +11938,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B90191-9E2E-483C-B32B-0324FF181178}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51B90191-9E2E-483C-B32B-0324FF181178}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -11949,7 +11948,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="81807" y="149368"/>
+          <a:off x="80292" y="146200"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -12009,7 +12008,7 @@
         <cdr:cNvPr id="6" name="Group 11">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{967A7FB0-D905-4A8C-89B5-EBEAC633915F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -12019,7 +12018,7 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr bwMode="auto">
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="81000" y="145725"/>
+          <a:off x="79485" y="142557"/>
           <a:ext cx="0" cy="0"/>
           <a:chOff x="3400425" y="1304934"/>
           <a:chExt cx="1962165" cy="600066"/>
@@ -12064,7 +12063,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Long section Kochua khal"/>
@@ -12093,11 +12092,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Cover "/>
       <sheetName val="out fall"/>
@@ -15126,39 +15122,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="14.33203125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="19"/>
-    <col min="8" max="8" width="9.109375" style="20"/>
-    <col min="9" max="9" width="7.33203125" style="19" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="18"/>
-    <col min="12" max="16384" width="9.109375" style="21"/>
+    <col min="1" max="1" width="21.28515625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="14.28515625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="19"/>
+    <col min="8" max="8" width="9.140625" style="20"/>
+    <col min="9" max="9" width="7.28515625" style="19" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="18"/>
+    <col min="12" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="7.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:16" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -15172,34 +15168,34 @@
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="J3" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="42"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="38"/>
       <c r="J4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -15209,7 +15205,7 @@
       <c r="B5" s="26">
         <v>10.130000000000001</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="38"/>
       <c r="J5" s="26">
         <v>5</v>
       </c>
@@ -15225,7 +15221,7 @@
       <c r="B6" s="26">
         <v>10.17</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="38"/>
       <c r="J6" s="26">
         <v>14.580000000000002</v>
       </c>
@@ -15240,8 +15236,8 @@
       <c r="B7" s="26">
         <v>10.06</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>116</v>
+      <c r="C7" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J7" s="26">
         <v>16.5</v>
@@ -15257,7 +15253,7 @@
       <c r="B8" s="26">
         <v>9.8800000000000008</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="38"/>
       <c r="J8" s="26">
         <v>18</v>
       </c>
@@ -15272,7 +15268,7 @@
       <c r="B9" s="26">
         <v>9.75</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="38"/>
       <c r="J9" s="26">
         <v>19.5</v>
       </c>
@@ -15289,7 +15285,7 @@
       <c r="B10" s="26">
         <v>9.2799999999999994</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="38"/>
       <c r="J10" s="26">
         <v>20.895</v>
       </c>
@@ -15306,7 +15302,7 @@
       <c r="B11" s="26">
         <v>8.36</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="38"/>
       <c r="J11" s="29">
         <v>32</v>
       </c>
@@ -15323,7 +15319,7 @@
       <c r="B12" s="26">
         <v>7.81</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="38"/>
       <c r="J12" s="25"/>
       <c r="K12" s="26"/>
       <c r="O12" s="28"/>
@@ -15336,7 +15332,7 @@
       <c r="B13" s="26">
         <v>7.43</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="38"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="O13" s="28"/>
@@ -15349,7 +15345,7 @@
       <c r="B14" s="26">
         <v>7.08</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="38"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30"/>
       <c r="O14" s="28"/>
@@ -15362,7 +15358,7 @@
       <c r="B15" s="26">
         <v>7.06</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="38"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
       <c r="O15" s="28"/>
@@ -15375,8 +15371,8 @@
       <c r="B16" s="26">
         <v>7.12</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>118</v>
+      <c r="C16" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
@@ -15390,7 +15386,7 @@
       <c r="B17" s="26">
         <v>6.94</v>
       </c>
-      <c r="C17" s="43"/>
+      <c r="C17" s="38"/>
       <c r="J17" s="30"/>
       <c r="K17" s="30"/>
       <c r="O17" s="28"/>
@@ -15403,7 +15399,7 @@
       <c r="B18" s="26">
         <v>7.32</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="38"/>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
       <c r="O18" s="28"/>
@@ -15416,7 +15412,7 @@
       <c r="B19" s="26">
         <v>7.43</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="38"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
       <c r="O19" s="28"/>
@@ -15429,7 +15425,7 @@
       <c r="B20" s="26">
         <v>7.69</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="38"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="O20" s="28"/>
@@ -15442,7 +15438,7 @@
       <c r="B21" s="26">
         <v>8.2100000000000009</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="38"/>
       <c r="J21" s="30"/>
       <c r="K21" s="30"/>
       <c r="O21" s="28"/>
@@ -15455,7 +15451,7 @@
       <c r="B22" s="26">
         <v>8.74</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="38"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
       <c r="O22" s="28"/>
@@ -15468,7 +15464,7 @@
       <c r="B23" s="26">
         <v>8.86</v>
       </c>
-      <c r="C23" s="43"/>
+      <c r="C23" s="38"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="O23" s="28"/>
@@ -15481,7 +15477,7 @@
       <c r="B24" s="26">
         <v>9.27</v>
       </c>
-      <c r="C24" s="43"/>
+      <c r="C24" s="38"/>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="O24" s="28"/>
@@ -15494,8 +15490,8 @@
       <c r="B25" s="26">
         <v>9.65</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>117</v>
+      <c r="C25" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -15509,7 +15505,7 @@
       <c r="B26" s="26">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="38"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="O26" s="28"/>
@@ -15522,7 +15518,7 @@
       <c r="B27" s="26">
         <v>9.48</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="38"/>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="O27" s="28"/>
@@ -15535,7 +15531,7 @@
       <c r="B28" s="26">
         <v>9.5299999999999994</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="38"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="O28" s="28"/>
@@ -15544,23 +15540,23 @@
     <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
-      <c r="C29" s="43"/>
+      <c r="C29" s="38"/>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
-      <c r="C30" s="43"/>
+      <c r="C30" s="38"/>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
     </row>
     <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="38"/>
       <c r="F31" s="20"/>
       <c r="H31" s="32"/>
       <c r="O31" s="28"/>
@@ -15568,19 +15564,19 @@
     </row>
     <row r="32" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="C32" s="38"/>
+      <c r="F32" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="F32" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K32" s="42"/>
+      <c r="J32" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="41"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
     </row>
@@ -15591,12 +15587,12 @@
       <c r="B33" s="24">
         <v>13.89</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="38"/>
       <c r="J33" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -15606,7 +15602,7 @@
       <c r="B34" s="24">
         <v>13.19</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="38"/>
       <c r="J34" s="33">
         <v>2</v>
       </c>
@@ -15621,7 +15617,7 @@
       <c r="B35" s="24">
         <v>12.39</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="38"/>
       <c r="J35" s="33">
         <v>9.01</v>
       </c>
@@ -15636,7 +15632,7 @@
       <c r="B36" s="24">
         <v>11.25</v>
       </c>
-      <c r="C36" s="43"/>
+      <c r="C36" s="38"/>
       <c r="J36" s="33">
         <v>14.5</v>
       </c>
@@ -15651,8 +15647,8 @@
       <c r="B37" s="24">
         <v>10.33</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>116</v>
+      <c r="C37" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J37" s="33">
         <v>16</v>
@@ -15668,7 +15664,7 @@
       <c r="B38" s="24">
         <v>9.4</v>
       </c>
-      <c r="C38" s="43"/>
+      <c r="C38" s="38"/>
       <c r="J38" s="33">
         <v>17.5</v>
       </c>
@@ -15684,7 +15680,7 @@
       <c r="B39" s="24">
         <v>9.08</v>
       </c>
-      <c r="C39" s="43"/>
+      <c r="C39" s="38"/>
       <c r="J39" s="33">
         <v>22.990000000000002</v>
       </c>
@@ -15699,7 +15695,7 @@
       <c r="B40" s="24">
         <v>8.68</v>
       </c>
-      <c r="C40" s="43"/>
+      <c r="C40" s="38"/>
       <c r="J40" s="33">
         <v>31</v>
       </c>
@@ -15714,7 +15710,7 @@
       <c r="B41" s="24">
         <v>8.65</v>
       </c>
-      <c r="C41" s="43"/>
+      <c r="C41" s="38"/>
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
     </row>
@@ -15725,8 +15721,8 @@
       <c r="B42" s="24">
         <v>9.17</v>
       </c>
-      <c r="C42" s="43" t="s">
-        <v>118</v>
+      <c r="C42" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="34"/>
@@ -15738,7 +15734,7 @@
       <c r="B43" s="24">
         <v>9.44</v>
       </c>
-      <c r="C43" s="43"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
@@ -15747,7 +15743,7 @@
       <c r="B44" s="24">
         <v>9.99</v>
       </c>
-      <c r="C44" s="43"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
@@ -15756,7 +15752,7 @@
       <c r="B45" s="24">
         <v>10.82</v>
       </c>
-      <c r="C45" s="43"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
@@ -15765,7 +15761,7 @@
       <c r="B46" s="24">
         <v>11.94</v>
       </c>
-      <c r="C46" s="43"/>
+      <c r="C46" s="38"/>
       <c r="F46" s="20"/>
       <c r="H46" s="32"/>
     </row>
@@ -15776,7 +15772,7 @@
       <c r="B47" s="24">
         <v>12.57</v>
       </c>
-      <c r="C47" s="43"/>
+      <c r="C47" s="38"/>
     </row>
     <row r="48" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
@@ -15785,8 +15781,8 @@
       <c r="B48" s="24">
         <v>12.58</v>
       </c>
-      <c r="C48" s="43" t="s">
-        <v>117</v>
+      <c r="C48" s="38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -15796,42 +15792,42 @@
       <c r="B49" s="24">
         <v>12.61</v>
       </c>
-      <c r="C49" s="43"/>
+      <c r="C49" s="38"/>
     </row>
     <row r="50" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
-      <c r="C50" s="43"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="43"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="43"/>
+      <c r="A52" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="38"/>
     </row>
     <row r="53" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="J53" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K53" s="42"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="J53" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" s="41"/>
     </row>
     <row r="54" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
@@ -15840,12 +15836,12 @@
       <c r="B54" s="24">
         <v>13.32</v>
       </c>
-      <c r="C54" s="43"/>
+      <c r="C54" s="38"/>
       <c r="J54" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -15855,8 +15851,8 @@
       <c r="B55" s="24">
         <v>13.36</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>116</v>
+      <c r="C55" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J55" s="24">
         <v>0</v>
@@ -15872,7 +15868,7 @@
       <c r="B56" s="24">
         <v>13.66</v>
       </c>
-      <c r="C56" s="43"/>
+      <c r="C56" s="38"/>
       <c r="J56" s="24">
         <v>5</v>
       </c>
@@ -15887,7 +15883,7 @@
       <c r="B57" s="24">
         <v>12.26</v>
       </c>
-      <c r="C57" s="43"/>
+      <c r="C57" s="38"/>
       <c r="J57" s="24">
         <v>9.1900000000000013</v>
       </c>
@@ -15902,7 +15898,7 @@
       <c r="B58" s="24">
         <v>11.76</v>
       </c>
-      <c r="C58" s="43"/>
+      <c r="C58" s="38"/>
       <c r="J58" s="24">
         <v>16</v>
       </c>
@@ -15917,7 +15913,7 @@
       <c r="B59" s="24">
         <v>10.77</v>
       </c>
-      <c r="C59" s="43"/>
+      <c r="C59" s="38"/>
       <c r="J59" s="24">
         <v>17.5</v>
       </c>
@@ -15932,8 +15928,8 @@
       <c r="B60" s="24">
         <v>10.029999999999999</v>
       </c>
-      <c r="C60" s="43" t="s">
-        <v>118</v>
+      <c r="C60" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J60" s="24">
         <v>19</v>
@@ -15949,7 +15945,7 @@
       <c r="B61" s="24">
         <v>9.44</v>
       </c>
-      <c r="C61" s="43"/>
+      <c r="C61" s="38"/>
       <c r="J61" s="24">
         <v>25.75</v>
       </c>
@@ -15964,7 +15960,7 @@
       <c r="B62" s="24">
         <v>10.1</v>
       </c>
-      <c r="C62" s="43"/>
+      <c r="C62" s="38"/>
       <c r="J62" s="24">
         <v>30</v>
       </c>
@@ -15979,7 +15975,7 @@
       <c r="B63" s="24">
         <v>11.52</v>
       </c>
-      <c r="C63" s="43"/>
+      <c r="C63" s="38"/>
       <c r="J63" s="24">
         <v>35</v>
       </c>
@@ -15994,7 +15990,7 @@
       <c r="B64" s="24">
         <v>12.06</v>
       </c>
-      <c r="C64" s="43"/>
+      <c r="C64" s="38"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
     </row>
@@ -16005,7 +16001,7 @@
       <c r="B65" s="24">
         <v>13.58</v>
       </c>
-      <c r="C65" s="43"/>
+      <c r="C65" s="38"/>
       <c r="J65" s="35"/>
       <c r="K65" s="35"/>
     </row>
@@ -16016,8 +16012,8 @@
       <c r="B66" s="24">
         <v>13.48</v>
       </c>
-      <c r="C66" s="43" t="s">
-        <v>117</v>
+      <c r="C66" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J66" s="30"/>
       <c r="K66" s="30"/>
@@ -16029,39 +16025,39 @@
       <c r="B67" s="24">
         <v>13.43</v>
       </c>
-      <c r="C67" s="43"/>
+      <c r="C67" s="38"/>
       <c r="J67" s="30"/>
       <c r="K67" s="30"/>
     </row>
     <row r="68" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="43"/>
-      <c r="J68" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K68" s="42"/>
+      <c r="A68" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="43"/>
+      <c r="C68" s="38"/>
+      <c r="J68" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K68" s="41"/>
     </row>
     <row r="69" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
       <c r="J69" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K69" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K69" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -16071,7 +16067,7 @@
       <c r="B70" s="24">
         <v>13.3</v>
       </c>
-      <c r="C70" s="43"/>
+      <c r="C70" s="38"/>
       <c r="J70" s="24">
         <v>0</v>
       </c>
@@ -16086,8 +16082,8 @@
       <c r="B71" s="24">
         <v>13.44</v>
       </c>
-      <c r="C71" s="43" t="s">
-        <v>116</v>
+      <c r="C71" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J71" s="24">
         <v>10</v>
@@ -16103,7 +16099,7 @@
       <c r="B72" s="24">
         <v>13.65</v>
       </c>
-      <c r="C72" s="43"/>
+      <c r="C72" s="38"/>
       <c r="J72" s="24">
         <v>12.684999999999999</v>
       </c>
@@ -16118,7 +16114,7 @@
       <c r="B73" s="24">
         <v>13.18</v>
       </c>
-      <c r="C73" s="43"/>
+      <c r="C73" s="38"/>
       <c r="J73" s="24">
         <v>19</v>
       </c>
@@ -16133,7 +16129,7 @@
       <c r="B74" s="24">
         <v>12.72</v>
       </c>
-      <c r="C74" s="43"/>
+      <c r="C74" s="38"/>
       <c r="J74" s="24">
         <v>20.5</v>
       </c>
@@ -16148,8 +16144,8 @@
       <c r="B75" s="24">
         <v>12.44</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>118</v>
+      <c r="C75" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J75" s="24">
         <v>22</v>
@@ -16165,7 +16161,7 @@
       <c r="B76" s="24">
         <v>11.74</v>
       </c>
-      <c r="C76" s="43"/>
+      <c r="C76" s="38"/>
       <c r="J76" s="24">
         <v>28.21</v>
       </c>
@@ -16180,7 +16176,7 @@
       <c r="B77" s="24">
         <v>10.89</v>
       </c>
-      <c r="C77" s="43"/>
+      <c r="C77" s="38"/>
       <c r="J77" s="24">
         <v>32</v>
       </c>
@@ -16195,7 +16191,7 @@
       <c r="B78" s="24">
         <v>10.49</v>
       </c>
-      <c r="C78" s="43"/>
+      <c r="C78" s="38"/>
       <c r="J78" s="24">
         <v>40</v>
       </c>
@@ -16210,7 +16206,7 @@
       <c r="B79" s="24">
         <v>10.19</v>
       </c>
-      <c r="C79" s="43"/>
+      <c r="C79" s="38"/>
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
     </row>
@@ -16221,7 +16217,7 @@
       <c r="B80" s="24">
         <v>10.29</v>
       </c>
-      <c r="C80" s="43"/>
+      <c r="C80" s="38"/>
       <c r="F80" s="20"/>
       <c r="H80" s="32"/>
       <c r="J80" s="24"/>
@@ -16234,7 +16230,7 @@
       <c r="B81" s="24">
         <v>10.48</v>
       </c>
-      <c r="C81" s="43"/>
+      <c r="C81" s="38"/>
       <c r="J81" s="24"/>
       <c r="K81" s="24"/>
     </row>
@@ -16245,7 +16241,7 @@
       <c r="B82" s="24">
         <v>11.04</v>
       </c>
-      <c r="C82" s="43"/>
+      <c r="C82" s="38"/>
       <c r="J82" s="24"/>
       <c r="K82" s="24"/>
     </row>
@@ -16256,7 +16252,7 @@
       <c r="B83" s="24">
         <v>12.09</v>
       </c>
-      <c r="C83" s="43"/>
+      <c r="C83" s="38"/>
       <c r="J83" s="24"/>
       <c r="K83" s="24"/>
     </row>
@@ -16267,8 +16263,8 @@
       <c r="B84" s="24">
         <v>13.66</v>
       </c>
-      <c r="C84" s="43" t="s">
-        <v>117</v>
+      <c r="C84" s="38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -16278,7 +16274,7 @@
       <c r="B85" s="24">
         <v>13.46</v>
       </c>
-      <c r="C85" s="43"/>
+      <c r="C85" s="38"/>
     </row>
     <row r="86" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
@@ -16287,42 +16283,42 @@
       <c r="B86" s="24">
         <v>13.4</v>
       </c>
-      <c r="C86" s="43"/>
+      <c r="C86" s="38"/>
     </row>
     <row r="87" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
-      <c r="C87" s="43"/>
+      <c r="C87" s="38"/>
     </row>
     <row r="88" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
-      <c r="C88" s="43"/>
+      <c r="C88" s="38"/>
     </row>
     <row r="89" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="43"/>
+      <c r="A89" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" s="43"/>
+      <c r="C89" s="38"/>
     </row>
     <row r="90" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="J90" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K90" s="42"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="J90" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K90" s="41"/>
     </row>
     <row r="91" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
@@ -16331,12 +16327,12 @@
       <c r="B91" s="24">
         <v>13.38</v>
       </c>
-      <c r="C91" s="43"/>
+      <c r="C91" s="38"/>
       <c r="J91" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K91" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K91" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -16346,7 +16342,7 @@
       <c r="B92" s="24">
         <v>13.52</v>
       </c>
-      <c r="C92" s="43"/>
+      <c r="C92" s="38"/>
       <c r="J92" s="33">
         <v>0</v>
       </c>
@@ -16361,8 +16357,8 @@
       <c r="B93" s="24">
         <v>13.63</v>
       </c>
-      <c r="C93" s="43" t="s">
-        <v>116</v>
+      <c r="C93" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J93" s="33">
         <v>5</v>
@@ -16378,7 +16374,7 @@
       <c r="B94" s="24">
         <v>13.39</v>
       </c>
-      <c r="C94" s="43"/>
+      <c r="C94" s="38"/>
       <c r="J94" s="33">
         <v>8.8000000000000007</v>
       </c>
@@ -16393,7 +16389,7 @@
       <c r="B95" s="24">
         <v>12.47</v>
       </c>
-      <c r="C95" s="43"/>
+      <c r="C95" s="38"/>
       <c r="J95" s="33">
         <v>14.5</v>
       </c>
@@ -16408,7 +16404,7 @@
       <c r="B96" s="24">
         <v>11.38</v>
       </c>
-      <c r="C96" s="43"/>
+      <c r="C96" s="38"/>
       <c r="J96" s="33">
         <v>16</v>
       </c>
@@ -16423,8 +16419,8 @@
       <c r="B97" s="24">
         <v>10.98</v>
       </c>
-      <c r="C97" s="43" t="s">
-        <v>118</v>
+      <c r="C97" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J97" s="33">
         <v>17.5</v>
@@ -16440,7 +16436,7 @@
       <c r="B98" s="24">
         <v>10.95</v>
       </c>
-      <c r="C98" s="43"/>
+      <c r="C98" s="38"/>
       <c r="J98" s="33">
         <v>23.2</v>
       </c>
@@ -16455,7 +16451,7 @@
       <c r="B99" s="24">
         <v>11.05</v>
       </c>
-      <c r="C99" s="43"/>
+      <c r="C99" s="38"/>
       <c r="J99" s="33">
         <v>29</v>
       </c>
@@ -16470,7 +16466,7 @@
       <c r="B100" s="24">
         <v>11.61</v>
       </c>
-      <c r="C100" s="43"/>
+      <c r="C100" s="38"/>
       <c r="J100" s="33">
         <v>35</v>
       </c>
@@ -16485,7 +16481,7 @@
       <c r="B101" s="24">
         <v>12.19</v>
       </c>
-      <c r="C101" s="43"/>
+      <c r="C101" s="38"/>
       <c r="J101" s="33"/>
       <c r="K101" s="33"/>
     </row>
@@ -16496,7 +16492,7 @@
       <c r="B102" s="24">
         <v>12.84</v>
       </c>
-      <c r="C102" s="43"/>
+      <c r="C102" s="38"/>
       <c r="J102" s="33"/>
       <c r="K102" s="33"/>
     </row>
@@ -16507,7 +16503,7 @@
       <c r="B103" s="24">
         <v>13.6</v>
       </c>
-      <c r="C103" s="43"/>
+      <c r="C103" s="38"/>
       <c r="J103" s="33"/>
       <c r="K103" s="33"/>
     </row>
@@ -16518,8 +16514,8 @@
       <c r="B104" s="24">
         <v>13.6</v>
       </c>
-      <c r="C104" s="43" t="s">
-        <v>117</v>
+      <c r="C104" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J104" s="33"/>
       <c r="K104" s="33"/>
@@ -16531,7 +16527,7 @@
       <c r="B105" s="24">
         <v>13.56</v>
       </c>
-      <c r="C105" s="43"/>
+      <c r="C105" s="38"/>
     </row>
     <row r="106" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
@@ -16540,42 +16536,42 @@
       <c r="B106" s="24">
         <v>13.53</v>
       </c>
-      <c r="C106" s="43"/>
+      <c r="C106" s="38"/>
     </row>
     <row r="107" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="31"/>
       <c r="B107" s="31"/>
-      <c r="C107" s="43"/>
+      <c r="C107" s="38"/>
     </row>
     <row r="108" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="31"/>
       <c r="B108" s="31"/>
-      <c r="C108" s="43"/>
+      <c r="C108" s="38"/>
     </row>
     <row r="109" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="43"/>
+      <c r="A109" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="43"/>
+      <c r="C109" s="38"/>
     </row>
     <row r="110" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B110" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C110" s="43"/>
-      <c r="D110" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="J110" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K110" s="42"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="J110" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K110" s="41"/>
     </row>
     <row r="111" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
@@ -16584,12 +16580,12 @@
       <c r="B111" s="24">
         <v>13.89</v>
       </c>
-      <c r="C111" s="43"/>
+      <c r="C111" s="38"/>
       <c r="J111" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K111" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K111" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -16599,7 +16595,7 @@
       <c r="B112" s="24">
         <v>13.87</v>
       </c>
-      <c r="C112" s="43"/>
+      <c r="C112" s="38"/>
       <c r="J112" s="24">
         <v>0</v>
       </c>
@@ -16614,8 +16610,8 @@
       <c r="B113" s="24">
         <v>13.89</v>
       </c>
-      <c r="C113" s="43" t="s">
-        <v>116</v>
+      <c r="C113" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J113" s="24">
         <v>5</v>
@@ -16631,7 +16627,7 @@
       <c r="B114" s="24">
         <v>13.5</v>
       </c>
-      <c r="C114" s="43"/>
+      <c r="C114" s="38"/>
       <c r="J114" s="24">
         <v>10</v>
       </c>
@@ -16646,7 +16642,7 @@
       <c r="B115" s="24">
         <v>12.87</v>
       </c>
-      <c r="C115" s="43"/>
+      <c r="C115" s="38"/>
       <c r="J115" s="24">
         <v>11</v>
       </c>
@@ -16661,8 +16657,8 @@
       <c r="B116" s="24">
         <v>12.22</v>
       </c>
-      <c r="C116" s="43" t="s">
-        <v>118</v>
+      <c r="C116" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J116" s="31">
         <v>12</v>
@@ -16678,7 +16674,7 @@
       <c r="B117" s="24">
         <v>11.488</v>
       </c>
-      <c r="C117" s="43"/>
+      <c r="C117" s="38"/>
       <c r="J117" s="24">
         <v>13</v>
       </c>
@@ -16693,7 +16689,7 @@
       <c r="B118" s="24">
         <v>11.208</v>
       </c>
-      <c r="C118" s="43"/>
+      <c r="C118" s="38"/>
       <c r="J118" s="24">
         <v>14.445</v>
       </c>
@@ -16708,7 +16704,7 @@
       <c r="B119" s="24">
         <v>10.837999999999999</v>
       </c>
-      <c r="C119" s="43"/>
+      <c r="C119" s="38"/>
       <c r="J119" s="24">
         <v>16.5</v>
       </c>
@@ -16723,7 +16719,7 @@
       <c r="B120" s="24">
         <v>10.907999999999999</v>
       </c>
-      <c r="C120" s="43"/>
+      <c r="C120" s="38"/>
       <c r="J120" s="24">
         <v>18</v>
       </c>
@@ -16738,7 +16734,7 @@
       <c r="B121" s="24">
         <v>11.017999999999999</v>
       </c>
-      <c r="C121" s="43"/>
+      <c r="C121" s="38"/>
       <c r="J121" s="24">
         <v>19.5</v>
       </c>
@@ -16753,8 +16749,8 @@
       <c r="B122" s="24">
         <v>11.017999999999999</v>
       </c>
-      <c r="C122" s="43" t="s">
-        <v>117</v>
+      <c r="C122" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J122" s="24">
         <v>24.509999999999998</v>
@@ -16770,7 +16766,7 @@
       <c r="B123" s="24">
         <v>11.087999999999999</v>
       </c>
-      <c r="C123" s="43"/>
+      <c r="C123" s="38"/>
       <c r="F123" s="20"/>
       <c r="H123" s="32"/>
       <c r="J123" s="24">
@@ -16787,7 +16783,7 @@
       <c r="B124" s="24">
         <v>11.488</v>
       </c>
-      <c r="C124" s="43"/>
+      <c r="C124" s="38"/>
       <c r="F124" s="20"/>
       <c r="H124" s="32"/>
       <c r="J124" s="24">
@@ -16804,7 +16800,7 @@
       <c r="B125" s="24">
         <v>12.23</v>
       </c>
-      <c r="C125" s="43"/>
+      <c r="C125" s="38"/>
       <c r="F125" s="20"/>
       <c r="H125" s="32"/>
       <c r="J125" s="24">
@@ -16821,7 +16817,7 @@
       <c r="B126" s="24">
         <v>13.23</v>
       </c>
-      <c r="C126" s="43"/>
+      <c r="C126" s="38"/>
       <c r="F126" s="20"/>
       <c r="H126" s="32"/>
       <c r="J126" s="24">
@@ -16838,7 +16834,7 @@
       <c r="B127" s="24">
         <v>13.73</v>
       </c>
-      <c r="C127" s="43"/>
+      <c r="C127" s="38"/>
       <c r="F127" s="20"/>
       <c r="H127" s="32"/>
     </row>
@@ -16849,7 +16845,7 @@
       <c r="B128" s="24">
         <v>13.89</v>
       </c>
-      <c r="C128" s="43"/>
+      <c r="C128" s="38"/>
     </row>
     <row r="129" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="24">
@@ -16858,7 +16854,7 @@
       <c r="B129" s="24">
         <v>13.83</v>
       </c>
-      <c r="C129" s="43"/>
+      <c r="C129" s="38"/>
     </row>
     <row r="130" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="24">
@@ -16867,47 +16863,47 @@
       <c r="B130" s="24">
         <v>13.79</v>
       </c>
-      <c r="C130" s="43"/>
+      <c r="C130" s="38"/>
     </row>
     <row r="131" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="31"/>
       <c r="B131" s="31"/>
-      <c r="C131" s="43"/>
+      <c r="C131" s="38"/>
     </row>
     <row r="132" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="31"/>
       <c r="B132" s="31"/>
-      <c r="C132" s="43"/>
+      <c r="C132" s="38"/>
     </row>
     <row r="133" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B133" s="39"/>
-      <c r="C133" s="43"/>
-      <c r="J133" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K133" s="42"/>
+      <c r="A133" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133" s="43"/>
+      <c r="C133" s="38"/>
+      <c r="J133" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K133" s="41"/>
     </row>
     <row r="134" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B134" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E134" s="40"/>
-      <c r="F134" s="40"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
       <c r="J134" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K134" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K134" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -16917,7 +16913,7 @@
       <c r="B135" s="24">
         <v>13.96</v>
       </c>
-      <c r="C135" s="43"/>
+      <c r="C135" s="38"/>
       <c r="J135" s="24">
         <v>0</v>
       </c>
@@ -16932,7 +16928,7 @@
       <c r="B136" s="24">
         <v>14.05</v>
       </c>
-      <c r="C136" s="43"/>
+      <c r="C136" s="38"/>
       <c r="J136" s="24">
         <v>5</v>
       </c>
@@ -16947,8 +16943,8 @@
       <c r="B137" s="24">
         <v>14</v>
       </c>
-      <c r="C137" s="43" t="s">
-        <v>116</v>
+      <c r="C137" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J137" s="24">
         <v>6.89</v>
@@ -16964,7 +16960,7 @@
       <c r="B138" s="24">
         <v>13.59</v>
       </c>
-      <c r="C138" s="43"/>
+      <c r="C138" s="38"/>
       <c r="J138" s="24">
         <v>12.5</v>
       </c>
@@ -16979,7 +16975,7 @@
       <c r="B139" s="24">
         <v>12.67</v>
       </c>
-      <c r="C139" s="43"/>
+      <c r="C139" s="38"/>
       <c r="J139" s="24">
         <v>14</v>
       </c>
@@ -16994,7 +16990,7 @@
       <c r="B140" s="24">
         <v>12.15</v>
       </c>
-      <c r="C140" s="43"/>
+      <c r="C140" s="38"/>
       <c r="J140" s="24">
         <v>15.5</v>
       </c>
@@ -17009,7 +17005,7 @@
       <c r="B141" s="24">
         <v>11.682000000000002</v>
       </c>
-      <c r="C141" s="43"/>
+      <c r="C141" s="38"/>
       <c r="J141" s="24">
         <v>21.785000000000004</v>
       </c>
@@ -17024,8 +17020,8 @@
       <c r="B142" s="24">
         <v>11.492000000000003</v>
       </c>
-      <c r="C142" s="43" t="s">
-        <v>118</v>
+      <c r="C142" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J142" s="24">
         <v>24</v>
@@ -17041,7 +17037,7 @@
       <c r="B143" s="24">
         <v>11.332000000000003</v>
       </c>
-      <c r="C143" s="43"/>
+      <c r="C143" s="38"/>
       <c r="J143" s="24">
         <v>25</v>
       </c>
@@ -17056,7 +17052,7 @@
       <c r="B144" s="24">
         <v>11.422000000000002</v>
       </c>
-      <c r="C144" s="43"/>
+      <c r="C144" s="38"/>
       <c r="J144" s="24">
         <v>30</v>
       </c>
@@ -17071,7 +17067,7 @@
       <c r="B145" s="24">
         <v>11.682000000000002</v>
       </c>
-      <c r="C145" s="43"/>
+      <c r="C145" s="38"/>
       <c r="J145" s="24"/>
       <c r="K145" s="24"/>
     </row>
@@ -17082,7 +17078,7 @@
       <c r="B146" s="24">
         <v>12.26</v>
       </c>
-      <c r="C146" s="43"/>
+      <c r="C146" s="38"/>
       <c r="F146" s="20"/>
       <c r="H146" s="32"/>
       <c r="J146" s="24"/>
@@ -17095,7 +17091,7 @@
       <c r="B147" s="24">
         <v>12.94</v>
       </c>
-      <c r="C147" s="43"/>
+      <c r="C147" s="38"/>
       <c r="F147" s="20"/>
       <c r="H147" s="32"/>
       <c r="J147" s="24"/>
@@ -17108,7 +17104,7 @@
       <c r="B148" s="24">
         <v>13.87</v>
       </c>
-      <c r="C148" s="43"/>
+      <c r="C148" s="38"/>
       <c r="F148" s="20"/>
       <c r="H148" s="32"/>
       <c r="J148" s="31"/>
@@ -17121,7 +17117,7 @@
       <c r="B149" s="24">
         <v>14.47</v>
       </c>
-      <c r="C149" s="43"/>
+      <c r="C149" s="38"/>
       <c r="F149" s="20"/>
       <c r="H149" s="32"/>
       <c r="J149" s="31"/>
@@ -17134,7 +17130,7 @@
       <c r="B150" s="24">
         <v>14.46</v>
       </c>
-      <c r="C150" s="43"/>
+      <c r="C150" s="38"/>
       <c r="F150" s="20"/>
       <c r="H150" s="32"/>
       <c r="J150" s="31"/>
@@ -17147,8 +17143,8 @@
       <c r="B151" s="24">
         <v>14.02</v>
       </c>
-      <c r="C151" s="43" t="s">
-        <v>117</v>
+      <c r="C151" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F151" s="20"/>
       <c r="H151" s="32"/>
@@ -17162,53 +17158,53 @@
       <c r="B152" s="24">
         <v>13.88</v>
       </c>
-      <c r="C152" s="43"/>
+      <c r="C152" s="38"/>
       <c r="J152" s="31"/>
       <c r="K152" s="31"/>
     </row>
     <row r="153" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="31"/>
       <c r="B153" s="31"/>
-      <c r="C153" s="43"/>
+      <c r="C153" s="38"/>
       <c r="J153" s="31"/>
       <c r="K153" s="31"/>
     </row>
     <row r="154" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="31"/>
       <c r="B154" s="31"/>
-      <c r="C154" s="43"/>
+      <c r="C154" s="38"/>
       <c r="J154" s="31"/>
       <c r="K154" s="31"/>
     </row>
     <row r="155" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B155" s="39"/>
-      <c r="C155" s="43"/>
-      <c r="D155" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E155" s="40"/>
-      <c r="F155" s="40"/>
-      <c r="J155" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K155" s="42"/>
+      <c r="A155" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B155" s="43"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E155" s="39"/>
+      <c r="F155" s="39"/>
+      <c r="J155" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K155" s="41"/>
     </row>
     <row r="156" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B156" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B156" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C156" s="43"/>
+      <c r="C156" s="38"/>
       <c r="J156" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K156" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K156" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -17218,7 +17214,7 @@
       <c r="B157" s="24">
         <v>13.36</v>
       </c>
-      <c r="C157" s="43"/>
+      <c r="C157" s="38"/>
       <c r="J157" s="24">
         <v>0</v>
       </c>
@@ -17233,7 +17229,7 @@
       <c r="B158" s="24">
         <v>13.32</v>
       </c>
-      <c r="C158" s="43"/>
+      <c r="C158" s="38"/>
       <c r="J158" s="24">
         <v>5</v>
       </c>
@@ -17248,7 +17244,7 @@
       <c r="B159" s="24">
         <v>13.43</v>
       </c>
-      <c r="C159" s="43"/>
+      <c r="C159" s="38"/>
       <c r="J159" s="24">
         <v>7</v>
       </c>
@@ -17263,8 +17259,8 @@
       <c r="B160" s="24">
         <v>12.29</v>
       </c>
-      <c r="C160" s="43" t="s">
-        <v>116</v>
+      <c r="C160" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J160" s="24">
         <v>8</v>
@@ -17280,7 +17276,7 @@
       <c r="B161" s="24">
         <v>11.909000000000001</v>
       </c>
-      <c r="C161" s="43"/>
+      <c r="C161" s="38"/>
       <c r="J161" s="24">
         <v>8.4500000000000011</v>
       </c>
@@ -17295,7 +17291,7 @@
       <c r="B162" s="24">
         <v>11.779</v>
       </c>
-      <c r="C162" s="43"/>
+      <c r="C162" s="38"/>
       <c r="J162" s="24">
         <v>11</v>
       </c>
@@ -17310,7 +17306,7 @@
       <c r="B163" s="24">
         <v>11.76</v>
       </c>
-      <c r="C163" s="43"/>
+      <c r="C163" s="38"/>
       <c r="J163" s="24">
         <v>12.5</v>
       </c>
@@ -17325,7 +17321,7 @@
       <c r="B164" s="24">
         <v>11.739000000000001</v>
       </c>
-      <c r="C164" s="43"/>
+      <c r="C164" s="38"/>
       <c r="J164" s="24">
         <v>14</v>
       </c>
@@ -17340,8 +17336,8 @@
       <c r="B165" s="24">
         <v>11.759</v>
       </c>
-      <c r="C165" s="43" t="s">
-        <v>118</v>
+      <c r="C165" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J165" s="24">
         <v>19.324999999999999</v>
@@ -17357,7 +17353,7 @@
       <c r="B166" s="24">
         <v>11.799000000000001</v>
       </c>
-      <c r="C166" s="43"/>
+      <c r="C166" s="38"/>
       <c r="J166" s="24">
         <v>22</v>
       </c>
@@ -17372,7 +17368,7 @@
       <c r="B167" s="24">
         <v>11.909000000000001</v>
       </c>
-      <c r="C167" s="43"/>
+      <c r="C167" s="38"/>
       <c r="J167" s="24">
         <v>23</v>
       </c>
@@ -17387,7 +17383,7 @@
       <c r="B168" s="24">
         <v>12.46</v>
       </c>
-      <c r="C168" s="43"/>
+      <c r="C168" s="38"/>
       <c r="J168" s="24">
         <v>30</v>
       </c>
@@ -17402,7 +17398,7 @@
       <c r="B169" s="24">
         <v>13.13</v>
       </c>
-      <c r="C169" s="43"/>
+      <c r="C169" s="38"/>
       <c r="J169" s="24"/>
       <c r="K169" s="24"/>
     </row>
@@ -17413,7 +17409,7 @@
       <c r="B170" s="24">
         <v>13.96</v>
       </c>
-      <c r="C170" s="43"/>
+      <c r="C170" s="38"/>
       <c r="J170" s="31"/>
       <c r="K170" s="31"/>
     </row>
@@ -17424,8 +17420,8 @@
       <c r="B171" s="24">
         <v>13.93</v>
       </c>
-      <c r="C171" s="43" t="s">
-        <v>117</v>
+      <c r="C171" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="F171" s="20"/>
       <c r="H171" s="32"/>
@@ -17439,7 +17435,7 @@
       <c r="B172" s="24">
         <v>13.59</v>
       </c>
-      <c r="C172" s="43"/>
+      <c r="C172" s="38"/>
       <c r="J172" s="31"/>
       <c r="K172" s="31"/>
     </row>
@@ -17450,51 +17446,51 @@
       <c r="B173" s="24">
         <v>13.45</v>
       </c>
-      <c r="C173" s="43"/>
+      <c r="C173" s="38"/>
       <c r="J173" s="31"/>
       <c r="K173" s="31"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="31"/>
       <c r="B174" s="31"/>
-      <c r="C174" s="43"/>
+      <c r="C174" s="38"/>
       <c r="J174" s="31"/>
       <c r="K174" s="31"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C175" s="43"/>
+      <c r="C175" s="38"/>
       <c r="J175" s="31"/>
       <c r="K175" s="31"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B176" s="39"/>
-      <c r="C176" s="43"/>
-      <c r="D176" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="J176" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K176" s="42"/>
+      <c r="A176" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B176" s="43"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E176" s="39"/>
+      <c r="F176" s="39"/>
+      <c r="J176" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K176" s="41"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B177" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B177" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C177" s="43"/>
+      <c r="C177" s="38"/>
       <c r="J177" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K177" s="36" t="s">
         <v>100</v>
-      </c>
-      <c r="K177" s="36" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -17504,7 +17500,7 @@
       <c r="B178" s="24">
         <v>13.5</v>
       </c>
-      <c r="C178" s="43"/>
+      <c r="C178" s="38"/>
       <c r="J178" s="24">
         <v>0</v>
       </c>
@@ -17519,8 +17515,8 @@
       <c r="B179" s="24">
         <v>13.7</v>
       </c>
-      <c r="C179" s="43" t="s">
-        <v>116</v>
+      <c r="C179" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J179" s="24">
         <v>5</v>
@@ -17536,7 +17532,7 @@
       <c r="B180" s="24">
         <v>13.7</v>
       </c>
-      <c r="C180" s="43"/>
+      <c r="C180" s="38"/>
       <c r="J180" s="24">
         <v>10</v>
       </c>
@@ -17551,7 +17547,7 @@
       <c r="B181" s="24">
         <v>13.8</v>
       </c>
-      <c r="C181" s="43"/>
+      <c r="C181" s="38"/>
       <c r="J181" s="24">
         <v>12.080000000000002</v>
       </c>
@@ -17566,8 +17562,8 @@
       <c r="B182" s="24">
         <v>13.12</v>
       </c>
-      <c r="C182" s="43" t="s">
-        <v>118</v>
+      <c r="C182" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J182" s="24">
         <v>17</v>
@@ -17583,7 +17579,7 @@
       <c r="B183" s="24">
         <v>12.164999999999999</v>
       </c>
-      <c r="C183" s="43"/>
+      <c r="C183" s="38"/>
       <c r="J183" s="24">
         <v>18.5</v>
       </c>
@@ -17598,7 +17594,7 @@
       <c r="B184" s="24">
         <v>11.86</v>
       </c>
-      <c r="C184" s="43"/>
+      <c r="C184" s="38"/>
       <c r="J184" s="24">
         <v>20</v>
       </c>
@@ -17613,7 +17609,7 @@
       <c r="B185" s="24">
         <v>11.75</v>
       </c>
-      <c r="C185" s="43"/>
+      <c r="C185" s="38"/>
       <c r="J185" s="24">
         <v>26.18</v>
       </c>
@@ -17628,7 +17624,7 @@
       <c r="B186" s="24">
         <v>11.74</v>
       </c>
-      <c r="C186" s="43"/>
+      <c r="C186" s="38"/>
       <c r="J186" s="24">
         <v>28</v>
       </c>
@@ -17643,7 +17639,7 @@
       <c r="B187" s="24">
         <v>11.74</v>
       </c>
-      <c r="C187" s="43"/>
+      <c r="C187" s="38"/>
       <c r="J187" s="24">
         <v>29</v>
       </c>
@@ -17658,7 +17654,7 @@
       <c r="B188" s="24">
         <v>11.79</v>
       </c>
-      <c r="C188" s="43"/>
+      <c r="C188" s="38"/>
       <c r="J188" s="24">
         <v>35</v>
       </c>
@@ -17673,7 +17669,7 @@
       <c r="B189" s="24">
         <v>11.91</v>
       </c>
-      <c r="C189" s="43"/>
+      <c r="C189" s="38"/>
       <c r="J189" s="24"/>
       <c r="K189" s="24"/>
     </row>
@@ -17684,7 +17680,7 @@
       <c r="B190" s="24">
         <v>12.164999999999999</v>
       </c>
-      <c r="C190" s="43"/>
+      <c r="C190" s="38"/>
       <c r="J190" s="24"/>
       <c r="K190" s="24"/>
     </row>
@@ -17695,7 +17691,7 @@
       <c r="B191" s="24">
         <v>12.84</v>
       </c>
-      <c r="C191" s="43"/>
+      <c r="C191" s="38"/>
       <c r="J191" s="24"/>
       <c r="K191" s="24"/>
     </row>
@@ -17706,7 +17702,7 @@
       <c r="B192" s="24">
         <v>13.7</v>
       </c>
-      <c r="C192" s="43"/>
+      <c r="C192" s="38"/>
       <c r="F192" s="20"/>
       <c r="H192" s="32"/>
       <c r="J192" s="31"/>
@@ -17719,7 +17715,7 @@
       <c r="B193" s="24">
         <v>14.6</v>
       </c>
-      <c r="C193" s="43"/>
+      <c r="C193" s="38"/>
       <c r="J193" s="31"/>
       <c r="K193" s="31"/>
     </row>
@@ -17730,8 +17726,8 @@
       <c r="B194" s="24">
         <v>14.59</v>
       </c>
-      <c r="C194" s="43" t="s">
-        <v>117</v>
+      <c r="C194" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J194" s="31"/>
       <c r="K194" s="31"/>
@@ -17743,7 +17739,7 @@
       <c r="B195" s="24">
         <v>13.66</v>
       </c>
-      <c r="C195" s="43"/>
+      <c r="C195" s="38"/>
       <c r="J195" s="31"/>
       <c r="K195" s="31"/>
     </row>
@@ -17754,37 +17750,37 @@
       <c r="B196" s="24">
         <v>13.54</v>
       </c>
-      <c r="C196" s="43"/>
+      <c r="C196" s="38"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B197" s="39"/>
-      <c r="C197" s="43"/>
-      <c r="D197" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E197" s="40"/>
-      <c r="F197" s="40"/>
-      <c r="J197" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K197" s="42"/>
+      <c r="A197" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B197" s="43"/>
+      <c r="C197" s="38"/>
+      <c r="D197" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
+      <c r="J197" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K197" s="41"/>
     </row>
     <row r="198" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B198" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B198" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C198" s="43"/>
+      <c r="C198" s="38"/>
       <c r="J198" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K198" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K198" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17794,7 +17790,7 @@
       <c r="B199" s="24">
         <v>13.49</v>
       </c>
-      <c r="C199" s="43"/>
+      <c r="C199" s="38"/>
       <c r="J199" s="24"/>
       <c r="K199" s="24"/>
     </row>
@@ -17805,8 +17801,8 @@
       <c r="B200" s="24">
         <v>13.54</v>
       </c>
-      <c r="C200" s="43" t="s">
-        <v>116</v>
+      <c r="C200" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J200" s="24">
         <v>0</v>
@@ -17822,7 +17818,7 @@
       <c r="B201" s="24">
         <v>13.59</v>
       </c>
-      <c r="C201" s="43"/>
+      <c r="C201" s="38"/>
       <c r="J201" s="24">
         <v>5</v>
       </c>
@@ -17837,7 +17833,7 @@
       <c r="B202" s="24">
         <v>13.26</v>
       </c>
-      <c r="C202" s="43"/>
+      <c r="C202" s="38"/>
       <c r="J202" s="24">
         <v>8.9700000000000006</v>
       </c>
@@ -17856,7 +17852,7 @@
       <c r="B203" s="24">
         <v>12.164999999999999</v>
       </c>
-      <c r="C203" s="43"/>
+      <c r="C203" s="38"/>
       <c r="J203" s="24">
         <v>13.5</v>
       </c>
@@ -17871,8 +17867,8 @@
       <c r="B204" s="24">
         <v>11.84</v>
       </c>
-      <c r="C204" s="43" t="s">
-        <v>118</v>
+      <c r="C204" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J204" s="24">
         <v>15</v>
@@ -17888,7 +17884,7 @@
       <c r="B205" s="24">
         <v>11.6</v>
       </c>
-      <c r="C205" s="43"/>
+      <c r="C205" s="38"/>
       <c r="J205" s="24">
         <v>16.5</v>
       </c>
@@ -17903,7 +17899,7 @@
       <c r="B206" s="24">
         <v>11.45</v>
       </c>
-      <c r="C206" s="43"/>
+      <c r="C206" s="38"/>
       <c r="J206" s="24">
         <v>22.184999999999999</v>
       </c>
@@ -17918,7 +17914,7 @@
       <c r="B207" s="24">
         <v>11.44</v>
       </c>
-      <c r="C207" s="43"/>
+      <c r="C207" s="38"/>
       <c r="J207" s="24">
         <v>25</v>
       </c>
@@ -17933,7 +17929,7 @@
       <c r="B208" s="24">
         <v>11.48</v>
       </c>
-      <c r="C208" s="43"/>
+      <c r="C208" s="38"/>
       <c r="J208" s="24">
         <v>26</v>
       </c>
@@ -17948,7 +17944,7 @@
       <c r="B209" s="24">
         <v>11.55</v>
       </c>
-      <c r="C209" s="43"/>
+      <c r="C209" s="38"/>
       <c r="J209" s="24">
         <v>35</v>
       </c>
@@ -17963,7 +17959,7 @@
       <c r="B210" s="24">
         <v>11.8</v>
       </c>
-      <c r="C210" s="43"/>
+      <c r="C210" s="38"/>
       <c r="J210" s="24"/>
       <c r="K210" s="24"/>
     </row>
@@ -17974,7 +17970,7 @@
       <c r="B211" s="24">
         <v>12.164999999999999</v>
       </c>
-      <c r="C211" s="43"/>
+      <c r="C211" s="38"/>
       <c r="J211" s="31"/>
       <c r="K211" s="31"/>
     </row>
@@ -17985,7 +17981,7 @@
       <c r="B212" s="24">
         <v>12.51</v>
       </c>
-      <c r="C212" s="43"/>
+      <c r="C212" s="38"/>
       <c r="J212" s="31"/>
       <c r="K212" s="31"/>
     </row>
@@ -17996,7 +17992,7 @@
       <c r="B213" s="24">
         <v>13.18</v>
       </c>
-      <c r="C213" s="43"/>
+      <c r="C213" s="38"/>
       <c r="J213" s="31"/>
       <c r="K213" s="31"/>
     </row>
@@ -18007,7 +18003,7 @@
       <c r="B214" s="24">
         <v>14.06</v>
       </c>
-      <c r="C214" s="43"/>
+      <c r="C214" s="38"/>
       <c r="J214" s="31"/>
       <c r="K214" s="31"/>
     </row>
@@ -18018,7 +18014,7 @@
       <c r="B215" s="24">
         <v>14.35</v>
       </c>
-      <c r="C215" s="43"/>
+      <c r="C215" s="38"/>
       <c r="J215" s="31"/>
       <c r="K215" s="31"/>
     </row>
@@ -18029,8 +18025,8 @@
       <c r="B216" s="24">
         <v>14.37</v>
       </c>
-      <c r="C216" s="43" t="s">
-        <v>117</v>
+      <c r="C216" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J216" s="31"/>
       <c r="K216" s="31"/>
@@ -18042,7 +18038,7 @@
       <c r="B217" s="24">
         <v>13.25</v>
       </c>
-      <c r="C217" s="43"/>
+      <c r="C217" s="38"/>
     </row>
     <row r="218" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="24">
@@ -18051,62 +18047,62 @@
       <c r="B218" s="24">
         <v>13.2</v>
       </c>
-      <c r="C218" s="43"/>
+      <c r="C218" s="38"/>
     </row>
     <row r="219" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C219" s="43"/>
+      <c r="C219" s="38"/>
     </row>
     <row r="220" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B220" s="39"/>
-      <c r="C220" s="43"/>
-      <c r="D220" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E220" s="40"/>
-      <c r="F220" s="40"/>
-      <c r="J220" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K220" s="42"/>
+      <c r="A220" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B220" s="43"/>
+      <c r="C220" s="38"/>
+      <c r="D220" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E220" s="39"/>
+      <c r="F220" s="39"/>
+      <c r="J220" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K220" s="41"/>
     </row>
     <row r="221" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B221" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B221" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C221" s="43"/>
+      <c r="C221" s="38"/>
       <c r="J221" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K221" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="K221" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="24">
         <v>0</v>
       </c>
       <c r="B222" s="24">
         <v>13.087999999999997</v>
       </c>
-      <c r="C222" s="43"/>
+      <c r="C222" s="38"/>
       <c r="J222" s="24"/>
       <c r="K222" s="24"/>
     </row>
-    <row r="223" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="24">
         <v>5</v>
       </c>
       <c r="B223" s="24">
         <v>13.067999999999998</v>
       </c>
-      <c r="C223" s="43" t="s">
-        <v>116</v>
+      <c r="C223" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J223" s="24">
         <v>0</v>
@@ -18115,14 +18111,14 @@
         <v>13.087999999999997</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="24">
         <v>10</v>
       </c>
       <c r="B224" s="24">
         <v>13.277999999999997</v>
       </c>
-      <c r="C224" s="43"/>
+      <c r="C224" s="38"/>
       <c r="J224" s="24">
         <v>5</v>
       </c>
@@ -18130,14 +18126,14 @@
         <v>13.067999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="24">
         <v>11</v>
       </c>
       <c r="B225" s="24">
         <v>12.185999999999998</v>
       </c>
-      <c r="C225" s="43"/>
+      <c r="C225" s="38"/>
       <c r="J225" s="24">
         <v>9.16</v>
       </c>
@@ -18145,14 +18141,14 @@
         <v>13.24</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="24">
         <v>12</v>
       </c>
       <c r="B226" s="24">
         <v>11.685999999999998</v>
       </c>
-      <c r="C226" s="43"/>
+      <c r="C226" s="38"/>
       <c r="J226" s="24">
         <v>13</v>
       </c>
@@ -18164,15 +18160,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="24">
         <v>14</v>
       </c>
       <c r="B227" s="24">
         <v>11.415999999999999</v>
       </c>
-      <c r="C227" s="43" t="s">
-        <v>118</v>
+      <c r="C227" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J227" s="24">
         <v>14.5</v>
@@ -18181,14 +18177,14 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="24">
         <v>14.5</v>
       </c>
       <c r="B228" s="24">
         <v>11.395999999999997</v>
       </c>
-      <c r="C228" s="43"/>
+      <c r="C228" s="38"/>
       <c r="J228" s="24">
         <v>16</v>
       </c>
@@ -18196,14 +18192,14 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="24">
         <v>17</v>
       </c>
       <c r="B229" s="24">
         <v>11.535999999999998</v>
       </c>
-      <c r="C229" s="43"/>
+      <c r="C229" s="38"/>
       <c r="J229" s="24">
         <v>19.21</v>
       </c>
@@ -18211,14 +18207,14 @@
         <v>12.82</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="24">
         <v>18</v>
       </c>
       <c r="B230" s="24">
         <v>12.185999999999998</v>
       </c>
-      <c r="C230" s="43"/>
+      <c r="C230" s="38"/>
       <c r="J230" s="24">
         <v>25</v>
       </c>
@@ -18226,14 +18222,14 @@
         <v>12.807999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="24">
         <v>19</v>
       </c>
       <c r="B231" s="24">
         <v>12.827999999999998</v>
       </c>
-      <c r="C231" s="43"/>
+      <c r="C231" s="38"/>
       <c r="J231" s="24">
         <v>35</v>
       </c>
@@ -18241,66 +18237,66 @@
         <v>12.797999999999998</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="24">
         <v>25</v>
       </c>
       <c r="B232" s="24">
         <v>12.807999999999998</v>
       </c>
-      <c r="C232" s="43" t="s">
-        <v>117</v>
+      <c r="C232" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J232" s="24"/>
       <c r="K232" s="24"/>
     </row>
-    <row r="233" spans="1:15" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="24">
         <v>35</v>
       </c>
       <c r="B233" s="24">
         <v>12.797999999999998</v>
       </c>
-      <c r="C233" s="43"/>
+      <c r="C233" s="38"/>
       <c r="J233" s="24"/>
       <c r="K233" s="24"/>
     </row>
     <row r="234" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="31"/>
       <c r="B234" s="31"/>
-      <c r="C234" s="43"/>
+      <c r="C234" s="38"/>
       <c r="J234" s="31"/>
       <c r="K234" s="31"/>
     </row>
     <row r="235" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B235" s="39"/>
-      <c r="C235" s="43"/>
-      <c r="D235" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E235" s="40"/>
-      <c r="F235" s="40"/>
-      <c r="J235" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K235" s="42"/>
+      <c r="A235" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B235" s="43"/>
+      <c r="C235" s="38"/>
+      <c r="D235" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E235" s="39"/>
+      <c r="F235" s="39"/>
+      <c r="J235" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K235" s="41"/>
     </row>
     <row r="236" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B236" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B236" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C236" s="43"/>
+      <c r="C236" s="38"/>
       <c r="J236" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K236" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K236" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -18310,7 +18306,7 @@
       <c r="B237" s="24">
         <v>13.92</v>
       </c>
-      <c r="C237" s="43"/>
+      <c r="C237" s="38"/>
       <c r="J237" s="24">
         <v>0</v>
       </c>
@@ -18325,8 +18321,8 @@
       <c r="B238" s="24">
         <v>14.17</v>
       </c>
-      <c r="C238" s="43" t="s">
-        <v>116</v>
+      <c r="C238" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J238" s="24">
         <v>5</v>
@@ -18346,7 +18342,7 @@
       <c r="B239" s="24">
         <v>14.17</v>
       </c>
-      <c r="C239" s="43"/>
+      <c r="C239" s="38"/>
       <c r="J239" s="24">
         <v>9.3849999999999998</v>
       </c>
@@ -18361,7 +18357,7 @@
       <c r="B240" s="24">
         <v>13.62</v>
       </c>
-      <c r="C240" s="43"/>
+      <c r="C240" s="38"/>
       <c r="J240" s="24">
         <v>14.5</v>
       </c>
@@ -18376,7 +18372,7 @@
       <c r="B241" s="24">
         <v>12.199999999999998</v>
       </c>
-      <c r="C241" s="43"/>
+      <c r="C241" s="38"/>
       <c r="J241" s="24">
         <v>16</v>
       </c>
@@ -18391,8 +18387,8 @@
       <c r="B242" s="24">
         <v>11.78</v>
       </c>
-      <c r="C242" s="43" t="s">
-        <v>118</v>
+      <c r="C242" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J242" s="24">
         <v>17.5</v>
@@ -18408,7 +18404,7 @@
       <c r="B243" s="24">
         <v>11.79</v>
       </c>
-      <c r="C243" s="43"/>
+      <c r="C243" s="38"/>
       <c r="J243" s="24">
         <v>22.465</v>
       </c>
@@ -18423,7 +18419,7 @@
       <c r="B244" s="24">
         <v>11.76</v>
       </c>
-      <c r="C244" s="43"/>
+      <c r="C244" s="38"/>
       <c r="J244" s="24">
         <v>23</v>
       </c>
@@ -18438,7 +18434,7 @@
       <c r="B245" s="24">
         <v>11.78</v>
       </c>
-      <c r="C245" s="43"/>
+      <c r="C245" s="38"/>
       <c r="J245" s="24">
         <v>30</v>
       </c>
@@ -18453,7 +18449,7 @@
       <c r="B246" s="24">
         <v>11.76</v>
       </c>
-      <c r="C246" s="43"/>
+      <c r="C246" s="38"/>
       <c r="J246" s="24">
         <v>35</v>
       </c>
@@ -18468,7 +18464,7 @@
       <c r="B247" s="24">
         <v>11.83</v>
       </c>
-      <c r="C247" s="43"/>
+      <c r="C247" s="38"/>
       <c r="J247" s="24"/>
       <c r="K247" s="24"/>
     </row>
@@ -18479,7 +18475,7 @@
       <c r="B248" s="24">
         <v>12.199999999999998</v>
       </c>
-      <c r="C248" s="43"/>
+      <c r="C248" s="38"/>
       <c r="J248" s="31"/>
       <c r="K248" s="31"/>
     </row>
@@ -18490,7 +18486,7 @@
       <c r="B249" s="24">
         <v>12.54</v>
       </c>
-      <c r="C249" s="43"/>
+      <c r="C249" s="38"/>
       <c r="J249" s="31"/>
       <c r="K249" s="31"/>
     </row>
@@ -18501,7 +18497,7 @@
       <c r="B250" s="24">
         <v>13.08</v>
       </c>
-      <c r="C250" s="43"/>
+      <c r="C250" s="38"/>
       <c r="J250" s="31"/>
       <c r="K250" s="31"/>
     </row>
@@ -18512,7 +18508,7 @@
       <c r="B251" s="24">
         <v>13.97</v>
       </c>
-      <c r="C251" s="43"/>
+      <c r="C251" s="38"/>
       <c r="J251" s="31"/>
       <c r="K251" s="31"/>
     </row>
@@ -18523,7 +18519,7 @@
       <c r="B252" s="24">
         <v>14.15</v>
       </c>
-      <c r="C252" s="43"/>
+      <c r="C252" s="38"/>
       <c r="J252" s="31"/>
       <c r="K252" s="31"/>
     </row>
@@ -18534,8 +18530,8 @@
       <c r="B253" s="24">
         <v>14.08</v>
       </c>
-      <c r="C253" s="43" t="s">
-        <v>117</v>
+      <c r="C253" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J253" s="31"/>
       <c r="K253" s="31"/>
@@ -18547,42 +18543,42 @@
       <c r="B254" s="24">
         <v>14.09</v>
       </c>
-      <c r="C254" s="43"/>
+      <c r="C254" s="38"/>
       <c r="J254" s="31"/>
       <c r="K254" s="31"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C255" s="43"/>
+      <c r="C255" s="38"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B256" s="39"/>
-      <c r="C256" s="43"/>
-      <c r="D256" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E256" s="40"/>
-      <c r="F256" s="40"/>
-      <c r="J256" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K256" s="42"/>
+      <c r="A256" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B256" s="43"/>
+      <c r="C256" s="38"/>
+      <c r="D256" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="E256" s="39"/>
+      <c r="F256" s="39"/>
+      <c r="J256" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K256" s="41"/>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B257" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B257" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C257" s="43"/>
+      <c r="C257" s="38"/>
       <c r="J257" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K257" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K257" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -18592,7 +18588,7 @@
       <c r="B258" s="24">
         <v>13.36</v>
       </c>
-      <c r="C258" s="43"/>
+      <c r="C258" s="38"/>
       <c r="J258" s="24">
         <v>0</v>
       </c>
@@ -18607,8 +18603,8 @@
       <c r="B259" s="24">
         <v>13.44</v>
       </c>
-      <c r="C259" s="43" t="s">
-        <v>116</v>
+      <c r="C259" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J259" s="24">
         <v>5</v>
@@ -18624,7 +18620,7 @@
       <c r="B260" s="24">
         <v>13.87</v>
       </c>
-      <c r="C260" s="43"/>
+      <c r="C260" s="38"/>
       <c r="J260" s="24">
         <v>6</v>
       </c>
@@ -18643,7 +18639,7 @@
       <c r="B261" s="24">
         <v>14.09</v>
       </c>
-      <c r="C261" s="43"/>
+      <c r="C261" s="38"/>
       <c r="J261" s="24">
         <v>8</v>
       </c>
@@ -18658,7 +18654,7 @@
       <c r="B262" s="24">
         <v>13.61</v>
       </c>
-      <c r="C262" s="43"/>
+      <c r="C262" s="38"/>
       <c r="J262" s="24">
         <v>10</v>
       </c>
@@ -18673,8 +18669,8 @@
       <c r="B263" s="24">
         <v>12.381999999999996</v>
       </c>
-      <c r="C263" s="43" t="s">
-        <v>118</v>
+      <c r="C263" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J263" s="24">
         <v>11</v>
@@ -18690,7 +18686,7 @@
       <c r="B264" s="24">
         <v>12.06</v>
       </c>
-      <c r="C264" s="43"/>
+      <c r="C264" s="38"/>
       <c r="J264" s="24">
         <v>11.945</v>
       </c>
@@ -18705,7 +18701,7 @@
       <c r="B265" s="24">
         <v>11.96</v>
       </c>
-      <c r="C265" s="43"/>
+      <c r="C265" s="38"/>
       <c r="J265" s="24">
         <v>14</v>
       </c>
@@ -18720,7 +18716,7 @@
       <c r="B266" s="24">
         <v>11.68</v>
       </c>
-      <c r="C266" s="43"/>
+      <c r="C266" s="38"/>
       <c r="J266" s="24">
         <v>15.5</v>
       </c>
@@ -18735,7 +18731,7 @@
       <c r="B267" s="24">
         <v>11.91</v>
       </c>
-      <c r="C267" s="43"/>
+      <c r="C267" s="38"/>
       <c r="J267" s="24">
         <v>17</v>
       </c>
@@ -18750,7 +18746,7 @@
       <c r="B268" s="24">
         <v>12.03</v>
       </c>
-      <c r="C268" s="43"/>
+      <c r="C268" s="38"/>
       <c r="J268" s="24">
         <v>20.599999999999998</v>
       </c>
@@ -18765,7 +18761,7 @@
       <c r="B269" s="24">
         <v>12.381999999999996</v>
       </c>
-      <c r="C269" s="43"/>
+      <c r="C269" s="38"/>
       <c r="J269" s="24">
         <v>21.5</v>
       </c>
@@ -18780,7 +18776,7 @@
       <c r="B270" s="24">
         <v>12.82</v>
       </c>
-      <c r="C270" s="43"/>
+      <c r="C270" s="38"/>
       <c r="J270" s="24">
         <v>22</v>
       </c>
@@ -18795,7 +18791,7 @@
       <c r="B271" s="24">
         <v>13.23</v>
       </c>
-      <c r="C271" s="43"/>
+      <c r="C271" s="38"/>
       <c r="J271" s="24">
         <v>28</v>
       </c>
@@ -18810,7 +18806,7 @@
       <c r="B272" s="24">
         <v>13.72</v>
       </c>
-      <c r="C272" s="43"/>
+      <c r="C272" s="38"/>
       <c r="J272" s="24">
         <v>35</v>
       </c>
@@ -18825,7 +18821,7 @@
       <c r="B273" s="24">
         <v>13.96</v>
       </c>
-      <c r="C273" s="43"/>
+      <c r="C273" s="38"/>
       <c r="J273" s="24"/>
       <c r="K273" s="24"/>
     </row>
@@ -18836,8 +18832,8 @@
       <c r="B274" s="24">
         <v>14.06</v>
       </c>
-      <c r="C274" s="43" t="s">
-        <v>117</v>
+      <c r="C274" s="38" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
@@ -18847,43 +18843,43 @@
       <c r="B275" s="24">
         <v>13.72</v>
       </c>
-      <c r="C275" s="43"/>
+      <c r="C275" s="38"/>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C276" s="43"/>
+      <c r="C276" s="38"/>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C277" s="43"/>
+      <c r="C277" s="38"/>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A278" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B278" s="39"/>
-      <c r="C278" s="43"/>
-      <c r="D278" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E278" s="40"/>
-      <c r="F278" s="40"/>
-      <c r="J278" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K278" s="42"/>
+      <c r="A278" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B278" s="43"/>
+      <c r="C278" s="38"/>
+      <c r="D278" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E278" s="39"/>
+      <c r="F278" s="39"/>
+      <c r="J278" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K278" s="41"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B279" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B279" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C279" s="43"/>
+      <c r="C279" s="38"/>
       <c r="J279" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K279" s="24" t="s">
         <v>100</v>
-      </c>
-      <c r="K279" s="24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
@@ -18893,7 +18889,7 @@
       <c r="B280" s="24">
         <v>12.45</v>
       </c>
-      <c r="C280" s="43"/>
+      <c r="C280" s="38"/>
       <c r="J280" s="24">
         <v>0</v>
       </c>
@@ -18908,8 +18904,8 @@
       <c r="B281" s="24">
         <v>12.43</v>
       </c>
-      <c r="C281" s="43" t="s">
-        <v>116</v>
+      <c r="C281" s="38" t="s">
+        <v>115</v>
       </c>
       <c r="J281" s="24">
         <v>10</v>
@@ -18925,7 +18921,7 @@
       <c r="B282" s="24">
         <v>12.35</v>
       </c>
-      <c r="C282" s="43"/>
+      <c r="C282" s="38"/>
       <c r="J282" s="24">
         <v>14.445</v>
       </c>
@@ -18940,8 +18936,8 @@
       <c r="B283" s="24">
         <v>12.11</v>
       </c>
-      <c r="C283" s="43" t="s">
-        <v>118</v>
+      <c r="C283" s="38" t="s">
+        <v>117</v>
       </c>
       <c r="J283" s="24">
         <v>16.5</v>
@@ -18961,7 +18957,7 @@
       <c r="B284" s="24">
         <v>12.08</v>
       </c>
-      <c r="C284" s="43"/>
+      <c r="C284" s="38"/>
       <c r="J284" s="24">
         <v>18</v>
       </c>
@@ -18976,7 +18972,7 @@
       <c r="B285" s="24">
         <v>12.22</v>
       </c>
-      <c r="C285" s="43"/>
+      <c r="C285" s="38"/>
       <c r="J285" s="24">
         <v>19.5</v>
       </c>
@@ -18995,7 +18991,7 @@
       <c r="B286" s="24">
         <v>12.17</v>
       </c>
-      <c r="C286" s="43"/>
+      <c r="C286" s="38"/>
       <c r="J286" s="24">
         <v>21.509999999999998</v>
       </c>
@@ -19010,7 +19006,7 @@
       <c r="B287" s="24">
         <v>12.34</v>
       </c>
-      <c r="C287" s="43"/>
+      <c r="C287" s="38"/>
       <c r="J287" s="24">
         <v>30</v>
       </c>
@@ -19025,7 +19021,7 @@
       <c r="B288" s="24">
         <v>12.38</v>
       </c>
-      <c r="C288" s="43"/>
+      <c r="C288" s="38"/>
       <c r="J288" s="24">
         <v>35</v>
       </c>
@@ -19040,7 +19036,7 @@
       <c r="B289" s="24">
         <v>12.32</v>
       </c>
-      <c r="C289" s="43"/>
+      <c r="C289" s="38"/>
       <c r="J289" s="24"/>
       <c r="K289" s="24"/>
     </row>
@@ -19051,8 +19047,8 @@
       <c r="B290" s="24">
         <v>12.34</v>
       </c>
-      <c r="C290" s="43" t="s">
-        <v>117</v>
+      <c r="C290" s="38" t="s">
+        <v>116</v>
       </c>
       <c r="J290" s="31"/>
       <c r="K290" s="31"/>
@@ -19060,7 +19056,7 @@
     <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="24"/>
       <c r="B291" s="24"/>
-      <c r="C291" s="43"/>
+      <c r="C291" s="38"/>
       <c r="J291" s="31"/>
       <c r="K291" s="31"/>
     </row>
@@ -19081,17 +19077,18 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D155:F155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="D256:F256"/>
+    <mergeCell ref="J256:K256"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="J278:K278"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="J220:K220"/>
     <mergeCell ref="A235:B235"/>
     <mergeCell ref="D235:F235"/>
     <mergeCell ref="J235:K235"/>
@@ -19108,19 +19105,18 @@
     <mergeCell ref="J133:K133"/>
     <mergeCell ref="D134:F134"/>
     <mergeCell ref="A155:B155"/>
+    <mergeCell ref="D155:F155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="J176:K176"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="D197:F197"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="D256:F256"/>
-    <mergeCell ref="J256:K256"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="J278:K278"/>
   </mergeCells>
   <pageMargins left="0.45" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="29" orientation="portrait" r:id="rId1"/>
@@ -19129,21 +19125,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -19151,15 +19147,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -19173,27 +19169,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -19232,9 +19228,9 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -19246,13 +19242,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G2" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H2" s="3">
         <v>12.8</v>
@@ -19270,9 +19266,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3">
         <v>80</v>
@@ -19284,13 +19280,13 @@
         <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G3" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="3">
         <v>12.8</v>
@@ -19308,9 +19304,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3">
         <v>300</v>
@@ -19322,13 +19318,13 @@
         <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G4" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" s="3">
         <v>12.8</v>
@@ -19346,9 +19342,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3">
         <v>600</v>
@@ -19360,13 +19356,13 @@
         <v>86</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G5" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5" s="3">
         <v>12.8</v>
@@ -19384,9 +19380,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3">
         <v>900</v>
@@ -19398,13 +19394,13 @@
         <v>106</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G6" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="3">
         <v>12.8</v>
@@ -19422,9 +19418,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3">
         <v>1200</v>
@@ -19436,13 +19432,13 @@
         <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="3">
         <v>12.8</v>
@@ -19460,9 +19456,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="3">
         <v>1500</v>
@@ -19474,13 +19470,13 @@
         <v>152</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="3">
         <v>12.8</v>
@@ -19498,9 +19494,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="3">
         <v>1800</v>
@@ -19512,13 +19508,13 @@
         <v>173</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G9" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="3">
         <v>12.8</v>
@@ -19536,9 +19532,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="3">
         <v>2000</v>
@@ -19550,13 +19546,13 @@
         <v>196</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="3">
         <v>12.8</v>
@@ -19574,9 +19570,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3">
         <v>2200</v>
@@ -19588,13 +19584,13 @@
         <v>218</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G11" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="3">
         <v>12.8</v>
@@ -19612,9 +19608,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" s="3">
         <v>2500</v>
@@ -19626,13 +19622,13 @@
         <v>233</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G12" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="3">
         <v>12.8</v>
@@ -19650,9 +19646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="3">
         <v>2700</v>
@@ -19664,13 +19660,13 @@
         <v>254</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G13" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="3">
         <v>12.8</v>
@@ -19688,9 +19684,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3">
         <v>3000</v>
@@ -19702,13 +19698,13 @@
         <v>275</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G14" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="3">
         <v>12.8</v>
@@ -19726,9 +19722,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3">
         <v>3300</v>
@@ -19740,13 +19736,13 @@
         <v>290</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="G15" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="3">
         <v>12.8</v>
@@ -19764,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
     </row>
   </sheetData>
@@ -19774,26 +19770,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="10.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -19819,9 +19815,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="6">
         <v>-8.7200000000000006</v>
@@ -19836,7 +19832,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>16</v>
@@ -19852,21 +19848,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="143.6640625" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="143.7109375" customWidth="1"/>
+    <col min="3" max="21" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -19874,7 +19870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -19882,7 +19878,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -19890,7 +19886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -19898,7 +19894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -19906,7 +19902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -19914,7 +19910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -19922,7 +19918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -19930,7 +19926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2</v>
       </c>
@@ -19938,7 +19934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -19946,7 +19942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>4</v>
       </c>
@@ -19954,7 +19950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>5</v>
       </c>
@@ -19962,7 +19958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>6</v>
       </c>
@@ -19970,7 +19966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>7</v>
       </c>
@@ -19978,7 +19974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>8</v>
       </c>
@@ -19986,7 +19982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>9</v>
       </c>
@@ -19994,7 +19990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>10</v>
       </c>
@@ -20002,7 +19998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>11</v>
       </c>
@@ -20010,7 +20006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>12</v>
       </c>
@@ -20018,7 +20014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -20026,7 +20022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>14</v>
       </c>
@@ -20034,7 +20030,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>15</v>
       </c>
@@ -20042,7 +20038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>16</v>
       </c>
@@ -20050,7 +20046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>17</v>
       </c>
@@ -20065,21 +20061,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="21" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="3" max="21" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -20087,7 +20083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -20095,7 +20091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
@@ -20103,23 +20099,23 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>30</v>
       </c>
@@ -20127,7 +20123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>31</v>
       </c>
@@ -20135,7 +20131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
@@ -20143,15 +20139,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
@@ -20166,32 +20162,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="134.6640625" customWidth="1"/>
+    <col min="2" max="2" width="134.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -20199,7 +20195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -20207,7 +20203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -20215,7 +20211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -20223,7 +20219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -20231,7 +20227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -20239,7 +20235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -20247,7 +20243,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -20255,7 +20251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -20263,7 +20259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -20274,7 +20270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -20282,7 +20278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -20290,7 +20286,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>11</v>
       </c>
@@ -20298,7 +20294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -20306,7 +20302,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -20314,31 +20310,31 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>14</v>
       </c>
@@ -20346,7 +20342,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -20354,7 +20350,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
@@ -20362,7 +20358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -20370,7 +20366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -20378,7 +20374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -20386,7 +20382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -20394,7 +20390,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -20402,7 +20398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -20410,7 +20406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>6</v>
       </c>
